--- a/data/trans_orig/P16B14_2012-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16B14_2012-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ADA2F254-899E-4D45-97A5-DF9C9E724FE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{391C9CC1-A833-4E92-940A-662171F202A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{EF99A121-5B9F-424F-9352-5D39721FE83E}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{36E1B9E7-174F-41F5-95BF-DD81DA907A8C}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -161,25 +161,25 @@
     <t>97,21%</t>
   </si>
   <si>
-    <t>83,72%</t>
+    <t>85,56%</t>
   </si>
   <si>
     <t>98,01%</t>
   </si>
   <si>
-    <t>89,49%</t>
+    <t>87,7%</t>
   </si>
   <si>
     <t>2,79%</t>
   </si>
   <si>
-    <t>16,28%</t>
+    <t>14,44%</t>
   </si>
   <si>
     <t>1,99%</t>
   </si>
   <si>
-    <t>10,51%</t>
+    <t>12,3%</t>
   </si>
   <si>
     <t>94,04%</t>
@@ -188,13 +188,13 @@
     <t>98,83%</t>
   </si>
   <si>
-    <t>94,02%</t>
+    <t>95,18%</t>
   </si>
   <si>
     <t>99,19%</t>
   </si>
   <si>
-    <t>95,96%</t>
+    <t>95,79%</t>
   </si>
   <si>
     <t>5,96%</t>
@@ -203,13 +203,13 @@
     <t>1,17%</t>
   </si>
   <si>
-    <t>5,98%</t>
+    <t>4,82%</t>
   </si>
   <si>
     <t>0,81%</t>
   </si>
   <si>
-    <t>4,04%</t>
+    <t>4,21%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -624,7 +624,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF734111-E9FD-4A86-B227-002523B179E0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47ED541C-6FE5-4A3F-B07A-2BFE1081092F}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P16B14_2012-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16B14_2012-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{391C9CC1-A833-4E92-940A-662171F202A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{03CDB7C8-86B2-4522-83B8-2C62B74AE8CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{36E1B9E7-174F-41F5-95BF-DD81DA907A8C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{530BA44E-F813-4F2D-A7A9-4E81E6732983}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -104,7 +104,7 @@
     <t>44,41%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>85,49%</t>
@@ -119,7 +119,7 @@
     <t>11,83%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>84,31%</t>
@@ -140,7 +140,7 @@
     <t>5,61%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>63,75%</t>
@@ -161,25 +161,25 @@
     <t>97,21%</t>
   </si>
   <si>
-    <t>85,56%</t>
+    <t>84,95%</t>
   </si>
   <si>
     <t>98,01%</t>
   </si>
   <si>
-    <t>87,7%</t>
+    <t>89,58%</t>
   </si>
   <si>
     <t>2,79%</t>
   </si>
   <si>
-    <t>14,44%</t>
+    <t>15,05%</t>
   </si>
   <si>
     <t>1,99%</t>
   </si>
   <si>
-    <t>12,3%</t>
+    <t>10,42%</t>
   </si>
   <si>
     <t>94,04%</t>
@@ -188,13 +188,13 @@
     <t>98,83%</t>
   </si>
   <si>
-    <t>95,18%</t>
+    <t>94,55%</t>
   </si>
   <si>
     <t>99,19%</t>
   </si>
   <si>
-    <t>95,79%</t>
+    <t>95,59%</t>
   </si>
   <si>
     <t>5,96%</t>
@@ -203,13 +203,13 @@
     <t>1,17%</t>
   </si>
   <si>
-    <t>4,82%</t>
+    <t>5,45%</t>
   </si>
   <si>
     <t>0,81%</t>
   </si>
   <si>
-    <t>4,21%</t>
+    <t>4,41%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -624,7 +624,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47ED541C-6FE5-4A3F-B07A-2BFE1081092F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38A9FE26-DAE1-4A59-B902-6532BCF3E49C}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P16B14_2012-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16B14_2012-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{03CDB7C8-86B2-4522-83B8-2C62B74AE8CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6EADB4C5-510D-4A3E-8110-9969E5BAA240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{530BA44E-F813-4F2D-A7A9-4E81E6732983}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B22866C0-F3B3-4A72-93F7-3DE511EDC9BA}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -68,7 +68,7 @@
     <t>&lt;2.000hab</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -161,25 +161,25 @@
     <t>97,21%</t>
   </si>
   <si>
-    <t>84,95%</t>
+    <t>83,72%</t>
   </si>
   <si>
     <t>98,01%</t>
   </si>
   <si>
-    <t>89,58%</t>
+    <t>89,49%</t>
   </si>
   <si>
     <t>2,79%</t>
   </si>
   <si>
-    <t>15,05%</t>
+    <t>16,28%</t>
   </si>
   <si>
     <t>1,99%</t>
   </si>
   <si>
-    <t>10,42%</t>
+    <t>10,51%</t>
   </si>
   <si>
     <t>94,04%</t>
@@ -188,13 +188,13 @@
     <t>98,83%</t>
   </si>
   <si>
-    <t>94,55%</t>
+    <t>94,02%</t>
   </si>
   <si>
     <t>99,19%</t>
   </si>
   <si>
-    <t>95,59%</t>
+    <t>95,96%</t>
   </si>
   <si>
     <t>5,96%</t>
@@ -203,13 +203,13 @@
     <t>1,17%</t>
   </si>
   <si>
-    <t>5,45%</t>
+    <t>5,98%</t>
   </si>
   <si>
     <t>0,81%</t>
   </si>
   <si>
-    <t>4,41%</t>
+    <t>4,04%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -624,7 +624,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38A9FE26-DAE1-4A59-B902-6532BCF3E49C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1324DFA1-10D2-4FF5-BCDF-3A61E3849406}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P16B14_2012-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16B14_2012-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6EADB4C5-510D-4A3E-8110-9969E5BAA240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B97E2EAD-E5CC-4361-905A-47C937308ECC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B22866C0-F3B3-4A72-93F7-3DE511EDC9BA}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{C361E37F-9288-43CE-843D-3EC0489FE4E0}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="54">
   <si>
     <t>Porcentajes de antidepresivos y estimulantes recetados en 2012 (Tasa respuesta: 1,68%)</t>
   </si>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -74,16 +74,16 @@
     <t>100,0%</t>
   </si>
   <si>
-    <t>22,85%</t>
+    <t>63,75%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
   </si>
   <si>
     <t>No</t>
@@ -95,64 +95,49 @@
     <t>0%</t>
   </si>
   <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>84,31%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>79,25%</t>
   </si>
   <si>
     <t>85,49%</t>
   </si>
   <si>
-    <t>88,17%</t>
+    <t>20,75%</t>
   </si>
   <si>
     <t>14,51%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>84,31%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -624,8 +609,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1324DFA1-10D2-4FF5-BCDF-3A61E3849406}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F52D135D-142D-450A-B1A3-4F77B4E65545}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -742,10 +727,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D4" s="7">
-        <v>818</v>
+        <v>3806</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -757,10 +742,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="I4" s="7">
-        <v>2058</v>
+        <v>16002</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
@@ -772,10 +757,10 @@
         <v>13</v>
       </c>
       <c r="M4" s="7">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="N4" s="7">
-        <v>2876</v>
+        <v>19809</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
@@ -844,10 +829,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D6" s="7">
-        <v>818</v>
+        <v>3806</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>13</v>
@@ -859,10 +844,10 @@
         <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="I6" s="7">
-        <v>2058</v>
+        <v>16002</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>13</v>
@@ -874,10 +859,10 @@
         <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="N6" s="7">
-        <v>2876</v>
+        <v>19809</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>13</v>
@@ -897,46 +882,46 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D7" s="7">
-        <v>2989</v>
+        <v>13806</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H7" s="7">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I7" s="7">
-        <v>13945</v>
+        <v>23977</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M7" s="7">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="N7" s="7">
-        <v>16933</v>
+        <v>37783</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>13</v>
@@ -960,7 +945,7 @@
         <v>18</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -975,7 +960,7 @@
         <v>18</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -990,7 +975,7 @@
         <v>18</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -999,10 +984,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D9" s="7">
-        <v>2989</v>
+        <v>13806</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>13</v>
@@ -1014,10 +999,10 @@
         <v>13</v>
       </c>
       <c r="H9" s="7">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I9" s="7">
-        <v>13945</v>
+        <v>23977</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>13</v>
@@ -1029,10 +1014,10 @@
         <v>13</v>
       </c>
       <c r="M9" s="7">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="N9" s="7">
-        <v>16933</v>
+        <v>37783</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>13</v>
@@ -1046,52 +1031,52 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D10" s="7">
-        <v>13806</v>
+        <v>4953</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H10" s="7">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="I10" s="7">
-        <v>23977</v>
+        <v>8253</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M10" s="7">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="N10" s="7">
-        <v>37783</v>
+        <v>13205</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>13</v>
@@ -1115,7 +1100,7 @@
         <v>18</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -1154,10 +1139,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D12" s="7">
-        <v>13806</v>
+        <v>4953</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>13</v>
@@ -1169,10 +1154,10 @@
         <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="I12" s="7">
-        <v>23977</v>
+        <v>8253</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>13</v>
@@ -1184,10 +1169,10 @@
         <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="N12" s="7">
-        <v>37783</v>
+        <v>13205</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>13</v>
@@ -1207,49 +1192,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D13" s="7">
-        <v>4953</v>
+        <v>13953</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="7">
+        <v>33</v>
+      </c>
+      <c r="I13" s="7">
+        <v>33712</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="7">
-        <v>8</v>
-      </c>
-      <c r="I13" s="7">
-        <v>8253</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="N13" s="7">
-        <v>13205</v>
+        <v>47665</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1270,37 +1255,37 @@
         <v>18</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>969</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="L14" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14" s="7">
-        <v>0</v>
+        <v>969</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="P14" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1309,10 +1294,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D15" s="7">
-        <v>4953</v>
+        <v>13953</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>13</v>
@@ -1324,10 +1309,10 @@
         <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="I15" s="7">
-        <v>8253</v>
+        <v>34681</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>13</v>
@@ -1339,10 +1324,10 @@
         <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="N15" s="7">
-        <v>13205</v>
+        <v>48634</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>13</v>
@@ -1356,52 +1341,52 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D16" s="7">
-        <v>13953</v>
+        <v>36518</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H16" s="7">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="I16" s="7">
-        <v>33712</v>
+        <v>81944</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="M16" s="7">
-        <v>45</v>
+        <v>108</v>
       </c>
       <c r="N16" s="7">
-        <v>47665</v>
+        <v>118461</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>11</v>
@@ -1425,7 +1410,7 @@
         <v>18</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -1434,13 +1419,13 @@
         <v>969</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="M17" s="7">
         <v>1</v>
@@ -1449,13 +1434,13 @@
         <v>969</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1464,10 +1449,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D18" s="7">
-        <v>13953</v>
+        <v>36518</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>13</v>
@@ -1479,10 +1464,10 @@
         <v>13</v>
       </c>
       <c r="H18" s="7">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="I18" s="7">
-        <v>34681</v>
+        <v>82913</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>13</v>
@@ -1494,10 +1479,10 @@
         <v>13</v>
       </c>
       <c r="M18" s="7">
-        <v>46</v>
+        <v>109</v>
       </c>
       <c r="N18" s="7">
-        <v>48634</v>
+        <v>119430</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>13</v>
@@ -1510,171 +1495,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>31</v>
-      </c>
-      <c r="D19" s="7">
-        <v>36518</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H19" s="7">
-        <v>77</v>
-      </c>
-      <c r="I19" s="7">
-        <v>81944</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M19" s="7">
-        <v>108</v>
-      </c>
-      <c r="N19" s="7">
-        <v>118461</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="7">
-        <v>0</v>
-      </c>
-      <c r="D20" s="7">
-        <v>0</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" s="7" t="s">
+      <c r="A19" t="s">
         <v>53</v>
       </c>
-      <c r="H20" s="7">
-        <v>1</v>
-      </c>
-      <c r="I20" s="7">
-        <v>969</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1</v>
-      </c>
-      <c r="N20" s="7">
-        <v>969</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>31</v>
-      </c>
-      <c r="D21" s="7">
-        <v>36518</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H21" s="7">
-        <v>78</v>
-      </c>
-      <c r="I21" s="7">
-        <v>82913</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M21" s="7">
-        <v>109</v>
-      </c>
-      <c r="N21" s="7">
-        <v>119430</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>58</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
